--- a/experiment result/64_0.8_40_zs30_kappa_lp.xlsx
+++ b/experiment result/64_0.8_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004353146316496364</v>
+        <v>0.004920193368363078</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00787846608186395</v>
+        <v>0.001368360352503177</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008168590896303151</v>
+        <v>0.008128639310815811</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005692439870162601</v>
+        <v>0.0238907902906817</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004600505688535468</v>
+        <v>0.002669767786341008</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004962584627018232</v>
+        <v>0.024184643243185</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.005716209303666837</v>
+        <v>0.0001787973195717337</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003074307111306427</v>
+        <v>0.000525709986321422</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007313286640488484</v>
+        <v>0.001605105521522592</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01070207887850494</v>
+        <v>0.02066549288025849</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01007928398920994</v>
+        <v>0.02484146442744159</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.009665763754406717</v>
+        <v>0.03472373533165215</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02380701828264892</v>
+        <v>0.02226124337864138</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01465334650768243</v>
+        <v>0.05774492442075187</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.005612452043930528</v>
+        <v>0.006394117311893585</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00886396907836743</v>
+        <v>0.01016279396650747</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.006917661818671062</v>
+        <v>0.01550502785308329</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002729961441521077</v>
+        <v>0.001666416952964128</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01219518513644783</v>
+        <v>0.01985235247810266</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.006016272197780561</v>
+        <v>0.001654003579454433</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01516988641829926</v>
+        <v>0.002590458467443451</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.004716568285933481</v>
+        <v>0.001023153587051576</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01350150587511852</v>
+        <v>0.02985631024739452</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0113987785677971</v>
+        <v>0.009466381527282977</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01322446012103561</v>
+        <v>0.009036044504523414</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.007681175407617678</v>
+        <v>0.007486299620090326</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.006905086811997893</v>
+        <v>0.01026828990566427</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.005504339745684525</v>
+        <v>0.003947132346922001</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0050916444019543</v>
+        <v>0.01214348404459937</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01049688934770188</v>
+        <v>0.02108263607231778</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0088750667978572</v>
+        <v>0.0007312462478571331</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01138223925400081</v>
+        <v>0.0007220268485607162</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0130712525715965</v>
+        <v>0.01917049494444725</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.007143641132425385</v>
+        <v>0.000380035309454658</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.006680731304494881</v>
+        <v>0.003383927479250433</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.005922069907935493</v>
+        <v>0.005237441904487504</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.004253147319817315</v>
+        <v>0.01423888884102268</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.006425740144029371</v>
+        <v>0.004414273503469649</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.005939686452444836</v>
+        <v>0.007370698451257167</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.007452031374892418</v>
+        <v>0.0336432142478085</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.007813281332239101</v>
+        <v>0.009009760248437138</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.008224569733989866</v>
+        <v>0.008246726628881994</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.006945679904127136</v>
+        <v>0.002442635438142378</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.008765370111836444</v>
+        <v>0.005884422315073313</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.005231993471306167</v>
+        <v>0.002578127727057798</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.008015578822189406</v>
+        <v>0.003671056296190614</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0234069867367376</v>
+        <v>0.0622103570246812</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.003763569376690765</v>
+        <v>0.01030926812340412</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.006281311772261331</v>
+        <v>0.01568638951103082</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.00735027732928499</v>
+        <v>0.002502738789334316</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.006596600522078012</v>
+        <v>0.006919836077589917</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.007719036248893261</v>
+        <v>0.004696015874368441</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.00203982634141164</v>
+        <v>1.086900722587151e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.003333536161962638</v>
+        <v>0.0001441311017304383</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.00760825460348963</v>
+        <v>0.01373546217379392</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.007754593185750299</v>
+        <v>0.01542719625002539</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.004491332396203774</v>
+        <v>0.002347188791118768</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.006002961265082811</v>
+        <v>0.01268150248279123</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01321533892347322</v>
+        <v>0.04683672013001565</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.004097901266704469</v>
+        <v>0.0002014724767517193</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.003831856505667897</v>
+        <v>0.0002431692501967767</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.004661194034519546</v>
+        <v>0.002717751463538998</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.00320046753760949</v>
+        <v>0.01391816446095434</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008100369224435171</v>
+        <v>0.005153324474623325</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.008431931187661343</v>
+        <v>0.02116556375702444</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.004790556283338215</v>
+        <v>0.003293464755991692</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.005526517597298363</v>
+        <v>0.004719744833191001</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.005243374102442568</v>
+        <v>0.0008060195815786212</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003227168314254329</v>
+        <v>0.0001422714537103187</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003938398070787649</v>
+        <v>0.002945619151204512</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01207417081872045</v>
+        <v>0.01516748734624431</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01098513137335375</v>
+        <v>0.008712745177522362</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.007231580886772976</v>
+        <v>0.01946170047472988</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00435505859953241</v>
+        <v>0.0004110966617471411</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.007093908009298315</v>
+        <v>0.03846569709654499</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0041790731789392</v>
+        <v>0.001848861624501815</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.005489320412725304</v>
+        <v>0.0002997681221347706</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.00600474024669541</v>
+        <v>0.004759616083890384</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.008786443939200243</v>
+        <v>0.005779709209732834</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.005563820025402632</v>
+        <v>0.007717831553589109</v>
       </c>
     </row>
   </sheetData>
